--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T55_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T55_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2.554709391686116E-07</v>
+        <v>-0.005035358036557557</v>
       </c>
       <c r="C2">
-        <v>8.01143367166098E-07</v>
+        <v>0.3637990656943072</v>
       </c>
       <c r="D2">
-        <v>3.360900671017877E-12</v>
+        <v>0.1855351867275108</v>
       </c>
       <c r="E2">
-        <v>1.833275939682261E-06</v>
+        <v>0.4307379559865961</v>
       </c>
       <c r="F2">
-        <v>1.879105582334942E-06</v>
+        <v>0.4469673578304695</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.005035358036557557</v>
+        <v>-0.01898232632975465</v>
       </c>
       <c r="C3">
-        <v>0.3637990656943072</v>
+        <v>0.3165751929851393</v>
       </c>
       <c r="D3">
-        <v>0.1855351867275108</v>
+        <v>0.1363897707384557</v>
       </c>
       <c r="E3">
-        <v>0.4307379559865961</v>
+        <v>0.3693098573534908</v>
       </c>
       <c r="F3">
-        <v>0.4469673578304695</v>
+        <v>0.3838817902180699</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.01898232632975465</v>
+        <v>0.00780077805212256</v>
       </c>
       <c r="C4">
-        <v>0.3165751929851393</v>
+        <v>0.3794346132818944</v>
       </c>
       <c r="D4">
-        <v>0.1363897707384557</v>
+        <v>0.1847968220473418</v>
       </c>
       <c r="E4">
-        <v>0.3693098573534908</v>
+        <v>0.4298800088947401</v>
       </c>
       <c r="F4">
-        <v>0.3838817902180699</v>
+        <v>0.4489210943938488</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.00780077805212256</v>
+        <v>0.03532231998103826</v>
       </c>
       <c r="C5">
-        <v>0.3794346132818944</v>
+        <v>0.2564852750112934</v>
       </c>
       <c r="D5">
-        <v>0.1847968220473418</v>
+        <v>0.1004647918617584</v>
       </c>
       <c r="E5">
-        <v>0.4298800088947401</v>
+        <v>0.3169618145167623</v>
       </c>
       <c r="F5">
-        <v>0.4489210943938488</v>
+        <v>0.3303616777566779</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03532231998103826</v>
+        <v>0.002000156080238219</v>
       </c>
       <c r="C6">
-        <v>0.2564852750112934</v>
+        <v>0.3449448151542904</v>
       </c>
       <c r="D6">
-        <v>0.1004647918617584</v>
+        <v>0.1826303857083173</v>
       </c>
       <c r="E6">
-        <v>0.3169618145167623</v>
+        <v>0.4273527649475516</v>
       </c>
       <c r="F6">
-        <v>0.3303616777566779</v>
+        <v>0.4504644332784307</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002000156080238219</v>
+        <v>-0.05875859174690282</v>
       </c>
       <c r="C7">
-        <v>0.3449448151542904</v>
+        <v>0.3248866822092542</v>
       </c>
       <c r="D7">
-        <v>0.1826303857083173</v>
+        <v>0.1283271032654252</v>
       </c>
       <c r="E7">
-        <v>0.4273527649475516</v>
+        <v>0.3582277254281489</v>
       </c>
       <c r="F7">
-        <v>0.4504644332784307</v>
+        <v>0.3748117494910135</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05875859174690282</v>
+        <v>-0.02790046359007027</v>
       </c>
       <c r="C8">
-        <v>0.3248866822092542</v>
+        <v>0.3120137538489823</v>
       </c>
       <c r="D8">
-        <v>0.1283271032654252</v>
+        <v>0.1287774372279015</v>
       </c>
       <c r="E8">
-        <v>0.3582277254281489</v>
+        <v>0.3588557331684997</v>
       </c>
       <c r="F8">
-        <v>0.3748117494910135</v>
+        <v>0.3824716629792676</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02790046359007027</v>
+        <v>-0.03188629724616485</v>
       </c>
       <c r="C9">
-        <v>0.3120137538489823</v>
+        <v>0.2657389849834738</v>
       </c>
       <c r="D9">
-        <v>0.1287774372279015</v>
+        <v>0.1191175486163901</v>
       </c>
       <c r="E9">
-        <v>0.3588557331684997</v>
+        <v>0.3451341023665874</v>
       </c>
       <c r="F9">
-        <v>0.3824716629792676</v>
+        <v>0.3711930514458828</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03188629724616485</v>
+        <v>-0.0881379738596985</v>
       </c>
       <c r="C10">
-        <v>0.2657389849834738</v>
+        <v>0.4006321887415465</v>
       </c>
       <c r="D10">
-        <v>0.1191175486163901</v>
+        <v>0.2481252247171507</v>
       </c>
       <c r="E10">
-        <v>0.3451341023665874</v>
+        <v>0.4981216966938408</v>
       </c>
       <c r="F10">
-        <v>0.3711930514458828</v>
+        <v>0.5370552175868598</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0881379738596985</v>
+        <v>0.003999580097293598</v>
       </c>
       <c r="C11">
-        <v>0.4006321887415465</v>
+        <v>0.1842291207164398</v>
       </c>
       <c r="D11">
-        <v>0.2481252247171507</v>
+        <v>0.04734795102614385</v>
       </c>
       <c r="E11">
-        <v>0.4981216966938408</v>
+        <v>0.2175958433108129</v>
       </c>
       <c r="F11">
-        <v>0.5370552175868598</v>
+        <v>0.2432384488140937</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T55_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_T55_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.005035358036557557</v>
+        <v>2.554709391686116E-07</v>
       </c>
       <c r="C2">
-        <v>0.3637990656943072</v>
+        <v>8.01143367166098E-07</v>
       </c>
       <c r="D2">
-        <v>0.1855351867275108</v>
+        <v>3.360900671017877E-12</v>
       </c>
       <c r="E2">
-        <v>0.4307379559865961</v>
+        <v>1.833275939682261E-06</v>
       </c>
       <c r="F2">
-        <v>0.4469673578304695</v>
+        <v>1.879105582334942E-06</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01898232632975465</v>
+        <v>-0.005035358036557557</v>
       </c>
       <c r="C3">
-        <v>0.3165751929851393</v>
+        <v>0.3637990656943072</v>
       </c>
       <c r="D3">
-        <v>0.1363897707384557</v>
+        <v>0.1855351867275108</v>
       </c>
       <c r="E3">
-        <v>0.3693098573534908</v>
+        <v>0.4307379559865961</v>
       </c>
       <c r="F3">
-        <v>0.3838817902180699</v>
+        <v>0.4469673578304695</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.00780077805212256</v>
+        <v>-0.01898232632975465</v>
       </c>
       <c r="C4">
-        <v>0.3794346132818944</v>
+        <v>0.3165751929851393</v>
       </c>
       <c r="D4">
-        <v>0.1847968220473418</v>
+        <v>0.1363897707384557</v>
       </c>
       <c r="E4">
-        <v>0.4298800088947401</v>
+        <v>0.3693098573534908</v>
       </c>
       <c r="F4">
-        <v>0.4489210943938488</v>
+        <v>0.3838817902180699</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03532231998103826</v>
+        <v>0.00780077805212256</v>
       </c>
       <c r="C5">
-        <v>0.2564852750112934</v>
+        <v>0.3794346132818944</v>
       </c>
       <c r="D5">
-        <v>0.1004647918617584</v>
+        <v>0.1847968220473418</v>
       </c>
       <c r="E5">
-        <v>0.3169618145167623</v>
+        <v>0.4298800088947401</v>
       </c>
       <c r="F5">
-        <v>0.3303616777566779</v>
+        <v>0.4489210943938488</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.002000156080238219</v>
+        <v>0.03532231998103826</v>
       </c>
       <c r="C6">
-        <v>0.3449448151542904</v>
+        <v>0.2564852750112934</v>
       </c>
       <c r="D6">
-        <v>0.1826303857083173</v>
+        <v>0.1004647918617584</v>
       </c>
       <c r="E6">
-        <v>0.4273527649475516</v>
+        <v>0.3169618145167623</v>
       </c>
       <c r="F6">
-        <v>0.4504644332784307</v>
+        <v>0.3303616777566779</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05875859174690282</v>
+        <v>0.002000156080238219</v>
       </c>
       <c r="C7">
-        <v>0.3248866822092542</v>
+        <v>0.3449448151542904</v>
       </c>
       <c r="D7">
-        <v>0.1283271032654252</v>
+        <v>0.1826303857083173</v>
       </c>
       <c r="E7">
-        <v>0.3582277254281489</v>
+        <v>0.4273527649475516</v>
       </c>
       <c r="F7">
-        <v>0.3748117494910135</v>
+        <v>0.4504644332784307</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.02790046359007027</v>
+        <v>-0.05875859174690282</v>
       </c>
       <c r="C8">
-        <v>0.3120137538489823</v>
+        <v>0.3248866822092542</v>
       </c>
       <c r="D8">
-        <v>0.1287774372279015</v>
+        <v>0.1283271032654252</v>
       </c>
       <c r="E8">
-        <v>0.3588557331684997</v>
+        <v>0.3582277254281489</v>
       </c>
       <c r="F8">
-        <v>0.3824716629792676</v>
+        <v>0.3748117494910135</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03188629724616485</v>
+        <v>-0.02790046359007027</v>
       </c>
       <c r="C9">
-        <v>0.2657389849834738</v>
+        <v>0.3120137538489823</v>
       </c>
       <c r="D9">
-        <v>0.1191175486163901</v>
+        <v>0.1287774372279015</v>
       </c>
       <c r="E9">
-        <v>0.3451341023665874</v>
+        <v>0.3588557331684997</v>
       </c>
       <c r="F9">
-        <v>0.3711930514458828</v>
+        <v>0.3824716629792676</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0881379738596985</v>
+        <v>-0.03188629724616485</v>
       </c>
       <c r="C10">
-        <v>0.4006321887415465</v>
+        <v>0.2657389849834738</v>
       </c>
       <c r="D10">
-        <v>0.2481252247171507</v>
+        <v>0.1191175486163901</v>
       </c>
       <c r="E10">
-        <v>0.4981216966938408</v>
+        <v>0.3451341023665874</v>
       </c>
       <c r="F10">
-        <v>0.5370552175868598</v>
+        <v>0.3711930514458828</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003999580097293598</v>
+        <v>-0.0881379738596985</v>
       </c>
       <c r="C11">
-        <v>0.1842291207164398</v>
+        <v>0.4006321887415465</v>
       </c>
       <c r="D11">
-        <v>0.04734795102614385</v>
+        <v>0.2481252247171507</v>
       </c>
       <c r="E11">
-        <v>0.2175958433108129</v>
+        <v>0.4981216966938408</v>
       </c>
       <c r="F11">
-        <v>0.2432384488140937</v>
+        <v>0.5370552175868598</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
